--- a/相关文档/可视化的学习与灵感.xlsx
+++ b/相关文档/可视化的学习与灵感.xlsx
@@ -120,39 +120,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>撤销功能和恢复功能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿EXCEL，按钮+下拉菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker 耗时较长的用线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条，查看执行进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面的按钮和面板较多，可以考虑模仿网页游戏的界面风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象的代码结构，考虑拆分为多个文件，顶部require（……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选后的数据，树形布局、层次布局、多层环布局、环形树布局、力导向布局、方块网格布局、弓形布局、螺旋布局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>布局参数设置面板+视图参数设置面板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撤销功能和恢复功能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模仿EXCEL，按钮+下拉菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker 耗时较长的用线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条，查看执行进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面的按钮和面板较多，可以考虑模仿网页游戏的界面风格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向对象的代码结构，考虑拆分为多个文件，顶部require（……）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工具栏按钮是否激活，根据视图内容的选中状态变化，减少用户无效操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选后的数据，树形布局、层次布局、多层环布局、环形树布局、力导向布局、方块网格布局、弓形布局、螺旋布局。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,7 +646,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
@@ -656,7 +656,7 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
@@ -676,37 +676,37 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
